--- a/sensores.xlsx
+++ b/sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1683"/>
+  <dimension ref="A1:F1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37457,6 +37457,578 @@
         <v>61.8</v>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:24</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>115.92</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:25</t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>115.87</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:26</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:27</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:29</t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:30</t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:31</t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>69.63</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:37</t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:43</t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:44</t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:45</t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:46</t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:47</t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>69.72</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:48</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:49</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:50</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:52</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:53</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:54</t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>69.63</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:55</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>69.63</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:56</t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:57</t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:58</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:19:59</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:00</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:01</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensores.xlsx
+++ b/sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1709"/>
+  <dimension ref="A1:F1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38029,6 +38029,3438 @@
         <v>67.59999999999999</v>
       </c>
     </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:04</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:05</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:06</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:07</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:08</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:09</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:11</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:12</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:13</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:14</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:15</t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:16</t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>115.79</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:17</t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>115.87</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:18</t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>115.86</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:20</t>
+        </is>
+      </c>
+      <c r="B1724" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:21</t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>115.79</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:22</t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:23</t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:24</t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:26</t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>115.86</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:27</t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:28</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:29</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>115.86</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:30</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:31</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:32</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>115.87</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:34</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:35</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:36</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>115.92</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:37</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>115.89</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:38</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:39</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:40</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>115.87</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:41</t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:42</t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:43</t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:44</t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:46</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:47</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:48</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>115.87</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:49</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:50</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:51</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>115.89</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:52</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:53</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:54</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:55</t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>152.35</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:57</t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:58</t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:20:59</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:00</t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:01</t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:02</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:03</t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>44.46</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:04</t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:06</t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:07</t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>52.29</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:08</t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:09</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:10</t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:11</t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:12</t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>115.38</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:13</t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:14</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:15</t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:17</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:18</t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:19</t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:20</t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:21</t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:22</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:23</t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:25</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>2025-06-09 00:21:26</t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:03</t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:04</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:05</t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:06</t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:07</t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:09</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:10</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:11</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:12</t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:13</t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:14</t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:15</t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:17</t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:18</t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:19</t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:20</t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:21</t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:22</t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:24</t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>49.62</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:25</t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:26</t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:27</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:28</t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:29</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:30</t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:32</t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:33</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:34</t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:35</t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:36</t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:37</t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:39</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:40</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:41</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:42</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:43</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:44</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:46</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:47</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:48</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:49</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:50</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:51</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:52</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:54</t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:55</t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:56</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:57</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>789.74</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:58</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>789.75</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:00:59</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:00</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:02</t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:10</t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:16</t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>789.8</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:18</t>
+        </is>
+      </c>
+      <c r="B1838" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:19</t>
+        </is>
+      </c>
+      <c r="B1839" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>789.84</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:20</t>
+        </is>
+      </c>
+      <c r="B1840" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>789.91</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:21</t>
+        </is>
+      </c>
+      <c r="B1841" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>789.97</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:22</t>
+        </is>
+      </c>
+      <c r="B1842" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>789.79</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:23</t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:24</t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>789.74</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:26</t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:27</t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:28</t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:29</t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:30</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>789.87</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:31</t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:33</t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:34</t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>789.8200000000001</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:35</t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:36</t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>789.87</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:37</t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>789.96</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:38</t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:40</t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>790.01</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:41</t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:42</t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:43</t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:44</t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:46</t>
+        </is>
+      </c>
+      <c r="B1862" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:47</t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:49</t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:50</t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>514</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>789.87</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensores.xlsx
+++ b/sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1865"/>
+  <dimension ref="A1:F1934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41461,6 +41461,1524 @@
         <v>73.09999999999999</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:52</t>
+        </is>
+      </c>
+      <c r="B1866" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>789.9400000000001</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:53</t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>789.8200000000001</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:54</t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>789.75</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:56</t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:57</t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:58</t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:01:59</t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>789.84</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:00</t>
+        </is>
+      </c>
+      <c r="B1873" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>789.99</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:02</t>
+        </is>
+      </c>
+      <c r="B1874" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:03</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:04</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>789.85</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:05</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>789.92</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:07</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:08</t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:09</t>
+        </is>
+      </c>
+      <c r="B1880" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>789.85</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:11</t>
+        </is>
+      </c>
+      <c r="B1881" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>789.8200000000001</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:12</t>
+        </is>
+      </c>
+      <c r="B1882" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:13</t>
+        </is>
+      </c>
+      <c r="B1883" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:15</t>
+        </is>
+      </c>
+      <c r="B1884" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:16</t>
+        </is>
+      </c>
+      <c r="B1885" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:17</t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:19</t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:20</t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>789.89</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:21</t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>789.84</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:23</t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:24</t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:25</t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>789.77</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:26</t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:28</t>
+        </is>
+      </c>
+      <c r="B1894" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>789.74</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:29</t>
+        </is>
+      </c>
+      <c r="B1895" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:30</t>
+        </is>
+      </c>
+      <c r="B1896" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:32</t>
+        </is>
+      </c>
+      <c r="B1897" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>789.77</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:33</t>
+        </is>
+      </c>
+      <c r="B1898" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>789.87</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:34</t>
+        </is>
+      </c>
+      <c r="B1899" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>789.89</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:36</t>
+        </is>
+      </c>
+      <c r="B1900" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:37</t>
+        </is>
+      </c>
+      <c r="B1901" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:38</t>
+        </is>
+      </c>
+      <c r="B1902" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>789.89</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:39</t>
+        </is>
+      </c>
+      <c r="B1903" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:41</t>
+        </is>
+      </c>
+      <c r="B1904" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>789.75</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:42</t>
+        </is>
+      </c>
+      <c r="B1905" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:43</t>
+        </is>
+      </c>
+      <c r="B1906" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>789.8200000000001</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:45</t>
+        </is>
+      </c>
+      <c r="B1907" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:46</t>
+        </is>
+      </c>
+      <c r="B1908" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:47</t>
+        </is>
+      </c>
+      <c r="B1909" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:48</t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:50</t>
+        </is>
+      </c>
+      <c r="B1911" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:51</t>
+        </is>
+      </c>
+      <c r="B1912" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:52</t>
+        </is>
+      </c>
+      <c r="B1913" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:54</t>
+        </is>
+      </c>
+      <c r="B1914" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>2025-06-09 09:02:55</t>
+        </is>
+      </c>
+      <c r="B1915" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:12:58</t>
+        </is>
+      </c>
+      <c r="B1916" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>267.78</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:12:59</t>
+        </is>
+      </c>
+      <c r="B1917" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>81.65000000000001</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:00</t>
+        </is>
+      </c>
+      <c r="B1918" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:02</t>
+        </is>
+      </c>
+      <c r="B1919" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>82.77</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:03</t>
+        </is>
+      </c>
+      <c r="B1920" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>267.78</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:04</t>
+        </is>
+      </c>
+      <c r="B1921" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>268.07</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:06</t>
+        </is>
+      </c>
+      <c r="B1922" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:07</t>
+        </is>
+      </c>
+      <c r="B1923" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>80.48</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:08</t>
+        </is>
+      </c>
+      <c r="B1924" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>266.1</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:09</t>
+        </is>
+      </c>
+      <c r="B1925" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>267.67</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:11</t>
+        </is>
+      </c>
+      <c r="B1926" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>267.29</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:12</t>
+        </is>
+      </c>
+      <c r="B1927" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>267.31</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:13</t>
+        </is>
+      </c>
+      <c r="B1928" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:15</t>
+        </is>
+      </c>
+      <c r="B1929" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>266.97</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:16</t>
+        </is>
+      </c>
+      <c r="B1930" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>87.13</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:17</t>
+        </is>
+      </c>
+      <c r="B1931" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:18</t>
+        </is>
+      </c>
+      <c r="B1932" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>269.38</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:37</t>
+        </is>
+      </c>
+      <c r="B1933" t="n">
+        <v>520</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:52</t>
+        </is>
+      </c>
+      <c r="B1934" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>278.24</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensores.xlsx
+++ b/sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1934"/>
+  <dimension ref="A1:F2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,6386 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:13:58</t>
+        </is>
+      </c>
+      <c r="B1935" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>278.26</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:15</t>
+        </is>
+      </c>
+      <c r="B1936" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:16</t>
+        </is>
+      </c>
+      <c r="B1937" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>277.41</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:18</t>
+        </is>
+      </c>
+      <c r="B1938" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>277.81</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:19</t>
+        </is>
+      </c>
+      <c r="B1939" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>278.21</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:21</t>
+        </is>
+      </c>
+      <c r="B1940" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>277.34</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:22</t>
+        </is>
+      </c>
+      <c r="B1941" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>279.09</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:23</t>
+        </is>
+      </c>
+      <c r="B1942" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>789.0700000000001</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:25</t>
+        </is>
+      </c>
+      <c r="B1943" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>278.26</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:26</t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:27</t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>278.21</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:29</t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:30</t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>277.32</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:32</t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>277.76</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:34</t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>276.88</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:35</t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>278.1</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:37</t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>276.96</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>2025-06-09 10:14:38</t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>789.09</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:32</t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:34</t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>125.55</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:35</t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>124.76</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:36</t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>124.87</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:37</t>
+        </is>
+      </c>
+      <c r="B1957" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:38</t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:40</t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:41</t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:42</t>
+        </is>
+      </c>
+      <c r="B1961" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:43</t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:44</t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:46</t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>125.21</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:47</t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>125.19</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:48</t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:49</t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:50</t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:51</t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>124.88</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:53</t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>124.88</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:54</t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>124.85</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:55</t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>124.76</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:56</t>
+        </is>
+      </c>
+      <c r="B1973" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>124.76</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:57</t>
+        </is>
+      </c>
+      <c r="B1974" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:44:59</t>
+        </is>
+      </c>
+      <c r="B1975" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:00</t>
+        </is>
+      </c>
+      <c r="B1976" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:01</t>
+        </is>
+      </c>
+      <c r="B1977" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:02</t>
+        </is>
+      </c>
+      <c r="B1978" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:03</t>
+        </is>
+      </c>
+      <c r="B1979" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:05</t>
+        </is>
+      </c>
+      <c r="B1980" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>125.19</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:06</t>
+        </is>
+      </c>
+      <c r="B1981" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:07</t>
+        </is>
+      </c>
+      <c r="B1982" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:08</t>
+        </is>
+      </c>
+      <c r="B1983" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:09</t>
+        </is>
+      </c>
+      <c r="B1984" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:11</t>
+        </is>
+      </c>
+      <c r="B1985" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>125.77</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:12</t>
+        </is>
+      </c>
+      <c r="B1986" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:13</t>
+        </is>
+      </c>
+      <c r="B1987" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>125.29</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:14</t>
+        </is>
+      </c>
+      <c r="B1988" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1988" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>125.22</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:15</t>
+        </is>
+      </c>
+      <c r="B1989" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1989" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>125.17</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:16</t>
+        </is>
+      </c>
+      <c r="B1990" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1990" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>124.85</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:18</t>
+        </is>
+      </c>
+      <c r="B1991" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>124.87</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:19</t>
+        </is>
+      </c>
+      <c r="B1992" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:20</t>
+        </is>
+      </c>
+      <c r="B1993" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:21</t>
+        </is>
+      </c>
+      <c r="B1994" t="n">
+        <v>517</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>125.73</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:22</t>
+        </is>
+      </c>
+      <c r="B1995" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>125.73</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:24</t>
+        </is>
+      </c>
+      <c r="B1996" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>125.31</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:25</t>
+        </is>
+      </c>
+      <c r="B1997" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:26</t>
+        </is>
+      </c>
+      <c r="B1998" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>125.21</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:27</t>
+        </is>
+      </c>
+      <c r="B1999" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:28</t>
+        </is>
+      </c>
+      <c r="B2000" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:30</t>
+        </is>
+      </c>
+      <c r="B2001" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:31</t>
+        </is>
+      </c>
+      <c r="B2002" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:32</t>
+        </is>
+      </c>
+      <c r="B2003" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:33</t>
+        </is>
+      </c>
+      <c r="B2004" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:34</t>
+        </is>
+      </c>
+      <c r="B2005" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:36</t>
+        </is>
+      </c>
+      <c r="B2006" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:37</t>
+        </is>
+      </c>
+      <c r="B2007" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:38</t>
+        </is>
+      </c>
+      <c r="B2008" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:39</t>
+        </is>
+      </c>
+      <c r="B2009" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>789.4299999999999</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:40</t>
+        </is>
+      </c>
+      <c r="B2010" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:42</t>
+        </is>
+      </c>
+      <c r="B2011" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:43</t>
+        </is>
+      </c>
+      <c r="B2012" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:44</t>
+        </is>
+      </c>
+      <c r="B2013" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:45</t>
+        </is>
+      </c>
+      <c r="B2014" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:46</t>
+        </is>
+      </c>
+      <c r="B2015" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:47</t>
+        </is>
+      </c>
+      <c r="B2016" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:49</t>
+        </is>
+      </c>
+      <c r="B2017" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:50</t>
+        </is>
+      </c>
+      <c r="B2018" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:51</t>
+        </is>
+      </c>
+      <c r="B2019" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:52</t>
+        </is>
+      </c>
+      <c r="B2020" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:53</t>
+        </is>
+      </c>
+      <c r="B2021" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:55</t>
+        </is>
+      </c>
+      <c r="B2022" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:56</t>
+        </is>
+      </c>
+      <c r="B2023" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:57</t>
+        </is>
+      </c>
+      <c r="B2024" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:58</t>
+        </is>
+      </c>
+      <c r="B2025" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:45:59</t>
+        </is>
+      </c>
+      <c r="B2026" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:01</t>
+        </is>
+      </c>
+      <c r="B2027" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:02</t>
+        </is>
+      </c>
+      <c r="B2028" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:03</t>
+        </is>
+      </c>
+      <c r="B2029" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:04</t>
+        </is>
+      </c>
+      <c r="B2030" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:05</t>
+        </is>
+      </c>
+      <c r="B2031" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:07</t>
+        </is>
+      </c>
+      <c r="B2032" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:08</t>
+        </is>
+      </c>
+      <c r="B2033" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:09</t>
+        </is>
+      </c>
+      <c r="B2034" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:10</t>
+        </is>
+      </c>
+      <c r="B2035" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>44.66</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:11</t>
+        </is>
+      </c>
+      <c r="B2036" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>125.02</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:13</t>
+        </is>
+      </c>
+      <c r="B2037" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>125.41</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:14</t>
+        </is>
+      </c>
+      <c r="B2038" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>124.85</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:15</t>
+        </is>
+      </c>
+      <c r="B2039" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:16</t>
+        </is>
+      </c>
+      <c r="B2040" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>125.39</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:17</t>
+        </is>
+      </c>
+      <c r="B2041" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>125.39</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:19</t>
+        </is>
+      </c>
+      <c r="B2042" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>125.02</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:20</t>
+        </is>
+      </c>
+      <c r="B2043" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>125.02</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:21</t>
+        </is>
+      </c>
+      <c r="B2044" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:22</t>
+        </is>
+      </c>
+      <c r="B2045" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>124.98</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:23</t>
+        </is>
+      </c>
+      <c r="B2046" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:24</t>
+        </is>
+      </c>
+      <c r="B2047" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>125.02</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:26</t>
+        </is>
+      </c>
+      <c r="B2048" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:27</t>
+        </is>
+      </c>
+      <c r="B2049" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:28</t>
+        </is>
+      </c>
+      <c r="B2050" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>125.02</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:29</t>
+        </is>
+      </c>
+      <c r="B2051" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2051" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:30</t>
+        </is>
+      </c>
+      <c r="B2052" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2052" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>124.58</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:32</t>
+        </is>
+      </c>
+      <c r="B2053" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2053" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>124.58</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:33</t>
+        </is>
+      </c>
+      <c r="B2054" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2054" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:34</t>
+        </is>
+      </c>
+      <c r="B2055" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2055" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>123.18</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:35</t>
+        </is>
+      </c>
+      <c r="B2056" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2056" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>124.15</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:36</t>
+        </is>
+      </c>
+      <c r="B2057" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2057" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>123.61</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:37</t>
+        </is>
+      </c>
+      <c r="B2058" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2058" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>123.71</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:38</t>
+        </is>
+      </c>
+      <c r="B2059" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2059" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>123.27</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:40</t>
+        </is>
+      </c>
+      <c r="B2060" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2060" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:41</t>
+        </is>
+      </c>
+      <c r="B2061" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2061" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>123.08</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:42</t>
+        </is>
+      </c>
+      <c r="B2062" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2062" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:43</t>
+        </is>
+      </c>
+      <c r="B2063" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2063" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:44</t>
+        </is>
+      </c>
+      <c r="B2064" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2064" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:45</t>
+        </is>
+      </c>
+      <c r="B2065" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2065" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2065" t="n">
+        <v>57</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:46</t>
+        </is>
+      </c>
+      <c r="B2066" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2066" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2066" t="n">
+        <v>106.91</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:46:58</t>
+        </is>
+      </c>
+      <c r="B2067" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2067" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2067" t="n">
+        <v>123.64</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:09</t>
+        </is>
+      </c>
+      <c r="B2068" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2068" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2068" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:10</t>
+        </is>
+      </c>
+      <c r="B2069" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2069" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2069" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:11</t>
+        </is>
+      </c>
+      <c r="B2070" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2070" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2070" t="n">
+        <v>124.42</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:13</t>
+        </is>
+      </c>
+      <c r="B2071" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2071" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2071" t="n">
+        <v>123.93</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:14</t>
+        </is>
+      </c>
+      <c r="B2072" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2072" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2072" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:15</t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:16</t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:17</t>
+        </is>
+      </c>
+      <c r="B2075" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2075" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2075" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:18</t>
+        </is>
+      </c>
+      <c r="B2076" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2076" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2076" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:19</t>
+        </is>
+      </c>
+      <c r="B2077" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2077" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2077" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:21</t>
+        </is>
+      </c>
+      <c r="B2078" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2078" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2078" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:22</t>
+        </is>
+      </c>
+      <c r="B2079" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2079" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2079" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:23</t>
+        </is>
+      </c>
+      <c r="B2080" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2080" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2080" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:24</t>
+        </is>
+      </c>
+      <c r="B2081" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2081" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2081" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:25</t>
+        </is>
+      </c>
+      <c r="B2082" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2082" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2082" t="n">
+        <v>124.92</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:26</t>
+        </is>
+      </c>
+      <c r="B2083" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2083" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2083" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:27</t>
+        </is>
+      </c>
+      <c r="B2084" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2084" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2084" t="n">
+        <v>124.54</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:29</t>
+        </is>
+      </c>
+      <c r="B2085" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2085" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2085" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:30</t>
+        </is>
+      </c>
+      <c r="B2086" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2086" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2086" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:31</t>
+        </is>
+      </c>
+      <c r="B2087" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2087" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>123.59</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:32</t>
+        </is>
+      </c>
+      <c r="B2088" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2088" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>123.68</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:33</t>
+        </is>
+      </c>
+      <c r="B2089" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2089" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:34</t>
+        </is>
+      </c>
+      <c r="B2090" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2090" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:35</t>
+        </is>
+      </c>
+      <c r="B2091" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2091" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:37</t>
+        </is>
+      </c>
+      <c r="B2092" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2092" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>124.02</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:38</t>
+        </is>
+      </c>
+      <c r="B2093" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2093" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:39</t>
+        </is>
+      </c>
+      <c r="B2094" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2094" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>123.69</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:40</t>
+        </is>
+      </c>
+      <c r="B2095" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2095" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>124.13</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:41</t>
+        </is>
+      </c>
+      <c r="B2096" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2096" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>124.13</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:42</t>
+        </is>
+      </c>
+      <c r="B2097" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2097" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:44</t>
+        </is>
+      </c>
+      <c r="B2098" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2098" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>124.13</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:45</t>
+        </is>
+      </c>
+      <c r="B2099" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2099" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:46</t>
+        </is>
+      </c>
+      <c r="B2100" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2100" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:47</t>
+        </is>
+      </c>
+      <c r="B2101" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2101" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:48</t>
+        </is>
+      </c>
+      <c r="B2102" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2102" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>124.83</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:49</t>
+        </is>
+      </c>
+      <c r="B2103" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2103" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>124.39</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:50</t>
+        </is>
+      </c>
+      <c r="B2104" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2104" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:52</t>
+        </is>
+      </c>
+      <c r="B2105" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2105" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2105" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:53</t>
+        </is>
+      </c>
+      <c r="B2106" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2106" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:54</t>
+        </is>
+      </c>
+      <c r="B2107" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2107" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>124.56</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:55</t>
+        </is>
+      </c>
+      <c r="B2108" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2108" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:56</t>
+        </is>
+      </c>
+      <c r="B2109" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2109" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:57</t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2110" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:58</t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2111" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:47:59</t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2112" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:01</t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2113" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:02</t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2114" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:03</t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2115" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>124.13</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:04</t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2116" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:05</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2117" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>125.39</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:06</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2118" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:07</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:09</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:10</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:11</t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2122" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:12</t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2123" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:13</t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2124" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:14</t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2125" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:15</t>
+        </is>
+      </c>
+      <c r="B2126" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:17</t>
+        </is>
+      </c>
+      <c r="B2127" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:18</t>
+        </is>
+      </c>
+      <c r="B2128" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:19</t>
+        </is>
+      </c>
+      <c r="B2129" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:20</t>
+        </is>
+      </c>
+      <c r="B2130" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:21</t>
+        </is>
+      </c>
+      <c r="B2131" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:22</t>
+        </is>
+      </c>
+      <c r="B2132" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:23</t>
+        </is>
+      </c>
+      <c r="B2133" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>124.83</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:25</t>
+        </is>
+      </c>
+      <c r="B2134" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>124.97</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:26</t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:27</t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:28</t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:29</t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:30</t>
+        </is>
+      </c>
+      <c r="B2139" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:31</t>
+        </is>
+      </c>
+      <c r="B2140" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>124.83</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:33</t>
+        </is>
+      </c>
+      <c r="B2141" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:34</t>
+        </is>
+      </c>
+      <c r="B2142" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:35</t>
+        </is>
+      </c>
+      <c r="B2143" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:36</t>
+        </is>
+      </c>
+      <c r="B2144" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:37</t>
+        </is>
+      </c>
+      <c r="B2145" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:38</t>
+        </is>
+      </c>
+      <c r="B2146" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:39</t>
+        </is>
+      </c>
+      <c r="B2147" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:41</t>
+        </is>
+      </c>
+      <c r="B2148" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:42</t>
+        </is>
+      </c>
+      <c r="B2149" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>127.35</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:43</t>
+        </is>
+      </c>
+      <c r="B2150" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>324.05</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:44</t>
+        </is>
+      </c>
+      <c r="B2151" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:45</t>
+        </is>
+      </c>
+      <c r="B2152" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:46</t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:47</t>
+        </is>
+      </c>
+      <c r="B2154" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:49</t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>124.83</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:50</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:51</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:52</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:53</t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:54</t>
+        </is>
+      </c>
+      <c r="B2160" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:56</t>
+        </is>
+      </c>
+      <c r="B2161" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:57</t>
+        </is>
+      </c>
+      <c r="B2162" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:58</t>
+        </is>
+      </c>
+      <c r="B2163" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:48:59</t>
+        </is>
+      </c>
+      <c r="B2164" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>789.46</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:00</t>
+        </is>
+      </c>
+      <c r="B2165" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>123.27</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:01</t>
+        </is>
+      </c>
+      <c r="B2166" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:02</t>
+        </is>
+      </c>
+      <c r="B2167" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:04</t>
+        </is>
+      </c>
+      <c r="B2168" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:05</t>
+        </is>
+      </c>
+      <c r="B2169" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:06</t>
+        </is>
+      </c>
+      <c r="B2170" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:08</t>
+        </is>
+      </c>
+      <c r="B2171" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:10</t>
+        </is>
+      </c>
+      <c r="B2172" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>124.59</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:11</t>
+        </is>
+      </c>
+      <c r="B2173" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>125.05</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:13</t>
+        </is>
+      </c>
+      <c r="B2174" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:14</t>
+        </is>
+      </c>
+      <c r="B2175" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>124.58</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:16</t>
+        </is>
+      </c>
+      <c r="B2176" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>124.61</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:18</t>
+        </is>
+      </c>
+      <c r="B2177" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:19</t>
+        </is>
+      </c>
+      <c r="B2178" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:20</t>
+        </is>
+      </c>
+      <c r="B2179" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:21</t>
+        </is>
+      </c>
+      <c r="B2180" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:23</t>
+        </is>
+      </c>
+      <c r="B2181" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:24</t>
+        </is>
+      </c>
+      <c r="B2182" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:25</t>
+        </is>
+      </c>
+      <c r="B2183" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:27</t>
+        </is>
+      </c>
+      <c r="B2184" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:28</t>
+        </is>
+      </c>
+      <c r="B2185" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:29</t>
+        </is>
+      </c>
+      <c r="B2186" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:30</t>
+        </is>
+      </c>
+      <c r="B2187" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>124.49</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:32</t>
+        </is>
+      </c>
+      <c r="B2188" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:33</t>
+        </is>
+      </c>
+      <c r="B2189" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:34</t>
+        </is>
+      </c>
+      <c r="B2190" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>124.41</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:35</t>
+        </is>
+      </c>
+      <c r="B2191" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:37</t>
+        </is>
+      </c>
+      <c r="B2192" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:38</t>
+        </is>
+      </c>
+      <c r="B2193" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:39</t>
+        </is>
+      </c>
+      <c r="B2194" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:40</t>
+        </is>
+      </c>
+      <c r="B2195" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:41</t>
+        </is>
+      </c>
+      <c r="B2196" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:43</t>
+        </is>
+      </c>
+      <c r="B2197" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:44</t>
+        </is>
+      </c>
+      <c r="B2198" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>123.64</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:46</t>
+        </is>
+      </c>
+      <c r="B2199" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:47</t>
+        </is>
+      </c>
+      <c r="B2200" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>123.54</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:48</t>
+        </is>
+      </c>
+      <c r="B2201" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:49</t>
+        </is>
+      </c>
+      <c r="B2202" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>123.61</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:50</t>
+        </is>
+      </c>
+      <c r="B2203" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>123.62</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:52</t>
+        </is>
+      </c>
+      <c r="B2204" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:53</t>
+        </is>
+      </c>
+      <c r="B2205" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:54</t>
+        </is>
+      </c>
+      <c r="B2206" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:55</t>
+        </is>
+      </c>
+      <c r="B2207" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>124.87</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:56</t>
+        </is>
+      </c>
+      <c r="B2208" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>124.42</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:57</t>
+        </is>
+      </c>
+      <c r="B2209" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:49:59</t>
+        </is>
+      </c>
+      <c r="B2210" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>123.98</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:00</t>
+        </is>
+      </c>
+      <c r="B2211" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:01</t>
+        </is>
+      </c>
+      <c r="B2212" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>123.98</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:02</t>
+        </is>
+      </c>
+      <c r="B2213" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:03</t>
+        </is>
+      </c>
+      <c r="B2214" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:04</t>
+        </is>
+      </c>
+      <c r="B2215" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>124.87</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:06</t>
+        </is>
+      </c>
+      <c r="B2216" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:07</t>
+        </is>
+      </c>
+      <c r="B2217" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:08</t>
+        </is>
+      </c>
+      <c r="B2218" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:09</t>
+        </is>
+      </c>
+      <c r="B2219" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:11</t>
+        </is>
+      </c>
+      <c r="B2220" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>123.96</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:12</t>
+        </is>
+      </c>
+      <c r="B2221" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:13</t>
+        </is>
+      </c>
+      <c r="B2222" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:14</t>
+        </is>
+      </c>
+      <c r="B2223" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>2025-06-09 20:50:15</t>
+        </is>
+      </c>
+      <c r="B2224" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>123.45</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>68.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
